--- a/server-management-system/ExportServer.xlsx
+++ b/server-management-system/ExportServer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Server_id</t>
   </si>
@@ -35,6 +35,57 @@
   </si>
   <si>
     <t>Ipv4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>server1</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>172.16.254.1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>server2</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>170.14.255.1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>server3</t>
+  </si>
+  <si>
+    <t>177.14.251.1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>sever5</t>
+  </si>
+  <si>
+    <t>122.44.55.1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>server10</t>
+  </si>
+  <si>
+    <t>192.168.1.255</t>
   </si>
 </sst>
 </file>
@@ -69,8 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,6 +421,121 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44858.5815083382</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44858.5815083382</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44858.58328104522</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44858.58328104522</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44858.596784132016</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44858.596784132016</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44858.63279781095</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44858.63279781095</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44859.39251218991</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44859.39251218991</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/server-management-system/ExportServer.xlsx
+++ b/server-management-system/ExportServer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Server_id</t>
   </si>
@@ -37,52 +37,16 @@
     <t>Ipv4</t>
   </si>
   <si>
+    <t>Uptime</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>server1</t>
+    <t>server</t>
   </si>
   <si>
     <t>Off</t>
-  </si>
-  <si>
-    <t>172.16.254.1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>server2</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>170.14.255.1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>server3</t>
-  </si>
-  <si>
-    <t>177.14.251.1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>sever5</t>
-  </si>
-  <si>
-    <t>122.44.55.1</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>server10</t>
   </si>
   <si>
     <t>192.168.1.255</t>
@@ -420,120 +384,34 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>44858.5815083382</v>
+        <v>44862.63731518515</v>
       </c>
       <c r="F2" s="1">
-        <v>44858.5815083382</v>
+        <v>44862.63731518515</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44858.58328104522</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44858.58328104522</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44858.596784132016</v>
-      </c>
-      <c r="F4" s="1">
-        <v>44858.596784132016</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44858.63279781095</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44858.63279781095</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44859.39251218991</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44859.39251218991</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
+      <c r="H2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
